--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Large Model equivalence 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Large Model equivalence 1.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -957,12 +957,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1375,12 +1375,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1451,12 +1451,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1753,12 +1753,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1867,12 +1867,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2133,12 +2133,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3219,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3257,12 +3257,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5425,12 +5425,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
